--- a/GenerateApp/tables/Data/2/source.xlsx
+++ b/GenerateApp/tables/Data/2/source.xlsx
@@ -68,7 +68,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Bar Chart</a:t>
+              <a:t/>
             </a:r>
           </a:p>
         </rich>
@@ -88,12 +88,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Sheet1'!$A$1:$A$7</f>
+              <f>'Sheet1'!$A$1:$A$5</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Sheet1'!$B$1:$B$7</f>
+              <f>'Sheet1'!$B$1:$B$5</f>
             </numRef>
           </val>
         </ser>
@@ -479,7 +479,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,7 +492,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="n">
-        <v>906</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2">
@@ -500,7 +500,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>782</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>751</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4">
@@ -516,7 +516,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>733</v>
+        <v>630</v>
       </c>
     </row>
     <row r="5">
@@ -524,23 +524,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>6</v>
-      </c>
-      <c r="B6" t="n">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>7</v>
-      </c>
-      <c r="B7" t="n">
-        <v>564</v>
+        <v>615</v>
       </c>
     </row>
   </sheetData>

--- a/GenerateApp/tables/Data/2/source.xlsx
+++ b/GenerateApp/tables/Data/2/source.xlsx
@@ -492,7 +492,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="n">
-        <v>265</v>
+        <v>526</v>
       </c>
     </row>
     <row r="2">
@@ -500,7 +500,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>213</v>
+        <v>659</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>224</v>
+        <v>497</v>
       </c>
     </row>
     <row r="4">
@@ -516,7 +516,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>630</v>
+        <v>548</v>
       </c>
     </row>
     <row r="5">
@@ -524,7 +524,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>615</v>
+        <v>389</v>
       </c>
     </row>
   </sheetData>

--- a/GenerateApp/tables/Data/2/source.xlsx
+++ b/GenerateApp/tables/Data/2/source.xlsx
@@ -57,7 +57,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="4"/>
+  <style val="6"/>
   <chart>
     <title>
       <tx>
@@ -75,6 +75,14 @@
       </tx>
     </title>
     <plotArea>
+      <layout>
+        <manualLayout>
+          <wMode val="factor"/>
+          <hMode val="factor"/>
+          <w val="0.85"/>
+          <h val="0.85"/>
+        </manualLayout>
+      </layout>
       <barChart>
         <barDir val="col"/>
         <grouping val="clustered"/>
@@ -88,12 +96,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Sheet1'!$A$1:$A$5</f>
+              <f>'Sheet1'!$A$1:$A$10</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Sheet1'!$B$1:$B$5</f>
+              <f>'Sheet1'!$B$1:$B$10</f>
             </numRef>
           </val>
         </ser>
@@ -479,7 +487,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,42 +497,82 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>1</v>
+        <v>2003</v>
       </c>
       <c r="B1" t="n">
-        <v>526</v>
+        <v>453</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>2004</v>
       </c>
       <c r="B2" t="n">
-        <v>659</v>
+        <v>421</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>2005</v>
       </c>
       <c r="B3" t="n">
-        <v>497</v>
+        <v>360</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>2006</v>
       </c>
       <c r="B4" t="n">
-        <v>548</v>
+        <v>497</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>2007</v>
       </c>
       <c r="B5" t="n">
-        <v>389</v>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2008</v>
+      </c>
+      <c r="B6" t="n">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2009</v>
+      </c>
+      <c r="B7" t="n">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B8" t="n">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B9" t="n">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2012</v>
+      </c>
+      <c r="B10" t="n">
+        <v>287</v>
       </c>
     </row>
   </sheetData>

--- a/GenerateApp/tables/Data/2/source.xlsx
+++ b/GenerateApp/tables/Data/2/source.xlsx
@@ -57,7 +57,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="6"/>
+  <style val="7"/>
   <chart>
     <title>
       <tx>
@@ -96,12 +96,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Sheet1'!$A$1:$A$10</f>
+              <f>'Sheet1'!$A$1:$A$13</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Sheet1'!$B$1:$B$10</f>
+              <f>'Sheet1'!$B$1:$B$13</f>
             </numRef>
           </val>
         </ser>
@@ -487,7 +487,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,82 +497,106 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>2003</v>
+        <v>1</v>
       </c>
       <c r="B1" t="n">
-        <v>453</v>
+        <v>412</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2004</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>421</v>
+        <v>628</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2005</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>360</v>
+        <v>305</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2006</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>497</v>
+        <v>342</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2007</v>
+        <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>231</v>
+        <v>373</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2008</v>
+        <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>460</v>
+        <v>437</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2009</v>
+        <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>422</v>
+        <v>574</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2010</v>
+        <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>288</v>
+        <v>607</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2011</v>
+        <v>9</v>
       </c>
       <c r="B9" t="n">
-        <v>448</v>
+        <v>653</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2012</v>
+        <v>10</v>
       </c>
       <c r="B10" t="n">
-        <v>287</v>
+        <v>667</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>11</v>
+      </c>
+      <c r="B11" t="n">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>12</v>
+      </c>
+      <c r="B12" t="n">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>13</v>
+      </c>
+      <c r="B13" t="n">
+        <v>390</v>
       </c>
     </row>
   </sheetData>
